--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103365BB-4600-425E-9D29-93869A421396}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751288C5-848F-7445-801D-263432F34217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
   <si>
     <t>TRAINING SCHEDULE</t>
   </si>
@@ -61,9 +61,6 @@
     <t>4hrs</t>
   </si>
   <si>
-    <t>Install React Native</t>
-  </si>
-  <si>
     <t>All team</t>
   </si>
   <si>
@@ -73,31 +70,7 @@
     <t>19/12/2019</t>
   </si>
   <si>
-    <t>23/12/2019</t>
-  </si>
-  <si>
-    <t>26/12/2019</t>
-  </si>
-  <si>
-    <t>30/12/2019</t>
-  </si>
-  <si>
-    <t>Learn React Native</t>
-  </si>
-  <si>
-    <t>Learn Firebase</t>
-  </si>
-  <si>
-    <t>Learn Firebase, Learn React Native</t>
-  </si>
-  <si>
-    <t>Online</t>
-  </si>
-  <si>
     <t>13/12/2019</t>
-  </si>
-  <si>
-    <t>Learn WebDesign</t>
   </si>
   <si>
     <t>Nhan Duong, 
@@ -118,18 +91,80 @@
   </si>
   <si>
     <t>3 o'clock coffee</t>
+  </si>
+  <si>
+    <t>25/11/2019</t>
+  </si>
+  <si>
+    <t>28/11/2019</t>
+  </si>
+  <si>
+    <t>Class Room VLU</t>
+  </si>
+  <si>
+    <t>Component In React Native (p1)
+1. Understand the sequence of a Component's operation
+2. Text Component
+3. Image Component
+4. View Component</t>
+  </si>
+  <si>
+    <t>1. React Native application design process
+2. Instructions to build applications on Android + iPhone devices</t>
+  </si>
+  <si>
+    <t>1. Install with React Native Development
+2. Install the android virtual machine</t>
+  </si>
+  <si>
+    <t>1. Debug with JavaScript
+2. Debug with React Native
+3. Debug with Beyond Javascript</t>
+  </si>
+  <si>
+    <t>Publish Applications to AppStore</t>
+  </si>
+  <si>
+    <t>Publish Applications to Google Store</t>
+  </si>
+  <si>
+    <t>Component In React Native (p2)
+1. React Navigation
+2. Component nested Component
+3. Export Component
+4. Pass parameters to Component</t>
+  </si>
+  <si>
+    <t>Learn Firebase(p1)
+1. Realtime Database
+2. Authentication
+3. Firebase Cloud Messaging (FCM)
+4. Firebase Database Query
+5. Remote Config</t>
+  </si>
+  <si>
+    <t>1. Publish Applications to AppStore
+2. Publish Applications to Google Store</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -169,21 +204,6 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -199,7 +219,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -222,62 +242,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -555,334 +610,325 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
-    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="22" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.75">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="52">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19">
+      <c r="A3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="19"/>
+      <c r="B5" s="20"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="19"/>
+      <c r="B6" s="20"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1">
+      <c r="A8" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="34">
+      <c r="A9" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="51">
+      <c r="A10" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" s="11" customFormat="1" ht="47" customHeight="1">
+      <c r="A11" s="9">
+        <v>43508</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="9">
+        <v>43508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="102">
+      <c r="A12" s="9">
+        <v>43597</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G12" s="9">
+        <v>43597</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="85">
+      <c r="A13" s="9">
+        <v>43720</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G13" s="9">
+        <v>43720</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="51">
+      <c r="A14" s="9">
+        <v>43811</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="13">
+        <v>43811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="17" customFormat="1" ht="102">
+      <c r="A15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="34">
+      <c r="A16" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17">
+      <c r="A17" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17">
+      <c r="A18" s="14" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="4"/>
-    </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="G6" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>43811</v>
-      </c>
-      <c r="B7" s="7" t="s">
+      <c r="B18" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="9" t="s">
+      <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="10">
-        <v>43811</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="14">
-        <v>43832</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="G15" s="14">
-        <v>43832</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3"/>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
+      <c r="G18" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="15"/>
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -890,10 +936,10 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B7:B15" xr:uid="{40878CC8-E201-434E-84D7-CBB9ED97819D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B18" xr:uid="{40878CC8-E201-434E-84D7-CBB9ED97819D}">
       <formula1>"Class Room, Online"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F7:F21" xr:uid="{8407F428-3068-4721-918B-0392AA4E752A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19" xr:uid="{8407F428-3068-4721-918B-0392AA4E752A}">
       <formula1>"1hrs, 2hrs, 3hrs, 4hrs, 5hrs, 6hrs, 7hrs, 8hrs, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{751288C5-848F-7445-801D-263432F34217}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF63602-E37E-2543-9D7C-F49CB128467D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
   <si>
     <t>TRAINING SCHEDULE</t>
   </si>
@@ -145,6 +145,9 @@
   <si>
     <t>1. Publish Applications to AppStore
 2. Publish Applications to Google Store</t>
+  </si>
+  <si>
+    <t>Online</t>
   </si>
 </sst>
 </file>
@@ -153,7 +156,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="m/d/yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="7">
     <font>
@@ -276,59 +279,59 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,92 +616,92 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="22" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="4"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="22" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="52">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:7" ht="19">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="6">
         <v>43811</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:7" ht="18">
-      <c r="A5" s="19"/>
-      <c r="B5" s="20"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="19"/>
     </row>
     <row r="6" spans="1:7" ht="18">
-      <c r="A6" s="19"/>
-      <c r="B6" s="20"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="19"/>
     </row>
     <row r="8" spans="1:7" ht="25.5" customHeight="1">
-      <c r="A8" s="8" t="s">
+      <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="8" t="s">
+      <c r="D8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="8" t="s">
+      <c r="E8" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="34">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -710,18 +713,18 @@
       <c r="F9" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="51">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>25</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -733,18 +736,18 @@
       <c r="F10" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="11" customFormat="1" ht="47" customHeight="1">
-      <c r="A11" s="9">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="47" customHeight="1">
+      <c r="A11" s="8">
         <v>43508</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -756,18 +759,18 @@
       <c r="F11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="8">
         <v>43508</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="102">
-      <c r="A12" s="9">
+      <c r="A12" s="8">
         <v>43597</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -779,18 +782,18 @@
       <c r="F12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="8">
         <v>43597</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="85">
-      <c r="A13" s="9">
+      <c r="A13" s="8">
         <v>43720</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -802,18 +805,18 @@
       <c r="F13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="8">
         <v>43720</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="51">
-      <c r="A14" s="9">
+      <c r="A14" s="8">
         <v>43811</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="C14" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -825,21 +828,19 @@
       <c r="F14" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="12">
         <v>43811</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="17" customFormat="1" ht="102">
-      <c r="A15" s="9" t="s">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="102">
+      <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="18" t="s">
+      <c r="B15" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="17" t="s">
         <v>33</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -848,20 +849,18 @@
       <c r="F15" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="34">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>22</v>
-      </c>
+      <c r="B16" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
         <v>34</v>
       </c>
@@ -871,18 +870,18 @@
       <c r="F16" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="17">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="C17" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -894,18 +893,18 @@
       <c r="F17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="17">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -917,18 +916,18 @@
       <c r="F18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
+      <c r="A19" s="14"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
     </row>
   </sheetData>
   <dataConsolidate/>

--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -1,26 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF63602-E37E-2543-9D7C-F49CB128467D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09CD9F-D575-475D-957D-3D53494B7193}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
   <si>
     <t>TRAINING SCHEDULE</t>
   </si>
@@ -120,12 +126,6 @@
     <t>1. Debug with JavaScript
 2. Debug with React Native
 3. Debug with Beyond Javascript</t>
-  </si>
-  <si>
-    <t>Publish Applications to AppStore</t>
-  </si>
-  <si>
-    <t>Publish Applications to Google Store</t>
   </si>
   <si>
     <t>Component In React Native (p2)
@@ -148,6 +148,10 @@
   </si>
   <si>
     <t>Online</t>
+  </si>
+  <si>
+    <t>Publish Applications to AppStore
+Publish Applications to Google Store</t>
   </si>
 </sst>
 </file>
@@ -158,7 +162,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,7 +339,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -615,23 +619,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.75">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -641,7 +645,7 @@
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
-    <row r="2" spans="1:7" ht="19">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -649,7 +653,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -657,21 +661,21 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="18"/>
       <c r="B5" s="19"/>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="18"/>
       <c r="B6" s="19"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -694,7 +698,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -717,7 +721,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -740,7 +744,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="47" customHeight="1">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43508</v>
       </c>
@@ -763,7 +767,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="102">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43597</v>
       </c>
@@ -786,7 +790,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="85">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43720</v>
       </c>
@@ -797,7 +801,7 @@
         <v>22</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>13</v>
@@ -809,7 +813,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43811</v>
       </c>
@@ -832,16 +836,16 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="102">
+    <row r="15" spans="1:7" s="16" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>17</v>
@@ -853,16 +857,16 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="34">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>18</v>
@@ -874,7 +878,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -885,7 +889,7 @@
         <v>22</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>13</v>
@@ -897,7 +901,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -907,9 +911,7 @@
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2" t="s">
-        <v>31</v>
-      </c>
+      <c r="D18" s="2"/>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
@@ -920,7 +922,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14"/>
       <c r="B19" s="15"/>
       <c r="C19" s="15"/>

--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D09CD9F-D575-475D-957D-3D53494B7193}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930F7EB-73D4-BF4A-9C1F-436C2CCEB20D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13760" yWindow="460" windowWidth="15040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,18 +15,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
   <si>
     <t>TRAINING SCHEDULE</t>
   </si>
@@ -152,6 +146,15 @@
   <si>
     <t>Publish Applications to AppStore
 Publish Applications to Google Store</t>
+  </si>
+  <si>
+    <t>Research WebGIS</t>
+  </si>
+  <si>
+    <t>Setting and research QGIS</t>
+  </si>
+  <si>
+    <t>23/12/2019</t>
   </si>
 </sst>
 </file>
@@ -162,7 +165,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,18 +267,22 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -316,12 +323,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -337,9 +338,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -619,33 +623,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.75">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:7" ht="52">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+    </row>
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -653,7 +657,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -661,21 +665,21 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A5" s="18"/>
-      <c r="B5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
-      <c r="A6" s="18"/>
-      <c r="B6" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18">
+      <c r="A5" s="16"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:7" ht="18">
+      <c r="A6" s="16"/>
+      <c r="B6" s="17"/>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -698,7 +702,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -721,7 +725,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="51">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -744,7 +748,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="47" customHeight="1">
       <c r="A11" s="8">
         <v>43508</v>
       </c>
@@ -767,7 +771,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="102">
       <c r="A12" s="8">
         <v>43597</v>
       </c>
@@ -790,7 +794,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="85">
       <c r="A13" s="8">
         <v>43720</v>
       </c>
@@ -813,7 +817,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="51">
       <c r="A14" s="8">
         <v>43811</v>
       </c>
@@ -836,7 +840,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="16" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="102">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -844,7 +848,7 @@
         <v>33</v>
       </c>
       <c r="C15" s="9"/>
-      <c r="D15" s="17" t="s">
+      <c r="D15" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -857,7 +861,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="34">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -878,7 +882,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="34">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -901,7 +905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -911,7 +915,9 @@
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="2"/>
+      <c r="D18" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
@@ -922,14 +928,28 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+    <row r="19" spans="1:7" ht="17">
+      <c r="A19" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -937,7 +957,7 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B18" xr:uid="{40878CC8-E201-434E-84D7-CBB9ED97819D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9:B19" xr:uid="{40878CC8-E201-434E-84D7-CBB9ED97819D}">
       <formula1>"Class Room, Online"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F9:F19" xr:uid="{8407F428-3068-4721-918B-0392AA4E752A}">

--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5930F7EB-73D4-BF4A-9C1F-436C2CCEB20D}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC52F0-675E-4995-B80E-38EF18BF8EA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13760" yWindow="460" windowWidth="15040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>TRAINING SCHEDULE</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t>23/12/2019</t>
+  </si>
+  <si>
+    <t>21/12/2019</t>
   </si>
 </sst>
 </file>
@@ -165,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -335,15 +338,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -623,33 +626,33 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.83203125" style="3"/>
+    <col min="8" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="52">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.75">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-    </row>
-    <row r="2" spans="1:7" ht="19">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+    </row>
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -657,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="19">
+    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -665,21 +668,21 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="19">
+    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="18">
+    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="18">
+    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -702,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="34">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -725,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="51">
+    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -748,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="47" customHeight="1">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8">
         <v>43508</v>
       </c>
@@ -771,7 +774,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="102">
+    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="8">
         <v>43597</v>
       </c>
@@ -794,7 +797,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="85">
+    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="8">
         <v>43720</v>
       </c>
@@ -817,7 +820,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="51">
+    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8">
         <v>43811</v>
       </c>
@@ -840,7 +843,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="102">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -861,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="34">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -882,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="34">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -905,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17">
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -915,7 +918,7 @@
       <c r="C18" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="19" t="s">
+      <c r="D18" s="18" t="s">
         <v>35</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -928,9 +931,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="17">
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>11</v>

--- a/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
+++ b/Improgress/1. Planning and Process/1.7 Training Plan/PM_TrainingSchedule_Ver1.1.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11208"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4CC52F0-675E-4995-B80E-38EF18BF8EA0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF07152-88AB-CC44-8D4D-78421E892AFF}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -168,7 +168,7 @@
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,7 +346,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -626,23 +626,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1"/>
-    <col min="2" max="2" width="31.7109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.28515625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="42.140625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="3" customWidth="1"/>
+    <col min="2" max="2" width="31.6640625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="24.33203125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="42.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
     <col min="7" max="7" width="22" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="8.85546875" style="3"/>
+    <col min="8" max="16384" width="8.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="51" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" ht="52">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
@@ -652,7 +652,7 @@
       <c r="E1" s="19"/>
       <c r="F1" s="19"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="19">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -660,7 +660,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="19">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -668,21 +668,21 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="19">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="18">
       <c r="A5" s="16"/>
       <c r="B5" s="17"/>
     </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="18">
       <c r="A6" s="16"/>
       <c r="B6" s="17"/>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1">
       <c r="A8" s="7" t="s">
         <v>4</v>
       </c>
@@ -705,7 +705,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="34">
       <c r="A9" s="8" t="s">
         <v>23</v>
       </c>
@@ -728,7 +728,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" ht="51">
       <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
@@ -751,7 +751,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="47.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="47" customHeight="1">
       <c r="A11" s="8">
         <v>43508</v>
       </c>
@@ -774,7 +774,7 @@
         <v>43508</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="102">
       <c r="A12" s="8">
         <v>43597</v>
       </c>
@@ -797,7 +797,7 @@
         <v>43597</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="85">
       <c r="A13" s="8">
         <v>43720</v>
       </c>
@@ -820,7 +820,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="51">
       <c r="A14" s="8">
         <v>43811</v>
       </c>
@@ -843,7 +843,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="90.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="102">
       <c r="A15" s="8" t="s">
         <v>16</v>
       </c>
@@ -864,7 +864,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="34">
       <c r="A16" s="8" t="s">
         <v>16</v>
       </c>
@@ -885,7 +885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" ht="34">
       <c r="A17" s="8" t="s">
         <v>10</v>
       </c>
@@ -908,7 +908,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" ht="17">
       <c r="A18" s="13" t="s">
         <v>15</v>
       </c>
@@ -931,7 +931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" ht="17">
       <c r="A19" s="8" t="s">
         <v>38</v>
       </c>
